--- a/shaicha-manager/src/main/resources/static/upload/template/疾控中心模板.xlsx
+++ b/shaicha-manager/src/main/resources/static/upload/template/疾控中心模板.xlsx
@@ -88,12 +88,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="27">
@@ -156,54 +156,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,11 +186,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,28 +216,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,7 +238,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,16 +252,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,181 +313,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,45 +512,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,11 +540,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,13 +599,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,138 +631,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -770,7 +770,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -779,10 +779,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -798,7 +802,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
@@ -807,7 +811,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1158,7 +1162,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1187,9 +1191,9 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="7"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1200,97 +1204,95 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="29.25" customHeight="1" spans="1:19">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="9:16">
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" spans="19:19">
-      <c r="S4" s="16"/>
+      <c r="S4" s="17"/>
     </row>
     <row r="12" spans="19:19">
-      <c r="S12" s="16"/>
+      <c r="S12" s="17"/>
     </row>
   </sheetData>
   <sheetProtection password="C613" sheet="1" objects="1"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
-      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1995">
+      <formula1>"身份证,护照,其他"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请单击单元格右侧的按钮，选择下拉列表中的选项。" sqref="D3:D1994">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1995">
-      <formula1>"身份证,护照,其他"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+      <formula1>"幼儿园,一年级,二年级,三年级,四年级,五年级,六年级,初一,初二,初三,初四,高一,高二,高三"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
